--- a/NEW/src/어휘제한_consistency_result.xlsx
+++ b/NEW/src/어휘제한_consistency_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>All 10 songs are the same track by the same artist and perfectly align with the 'focus_classical' theme, indicating perfect consistency.</t>
+          <t>The playlist consists entirely of the same song, 'Nuvole Bianche' by Ludovico Einaudi, which ensures complete consistency in mood and style. This song is tagged as 'focus_classical,' fitting perfectly with the context of a library/focus setting.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -512,12 +512,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The playlist consists entirely of high-energy pop songs that are suitable for a gym or active setting. The repetition of tracks by Dua Lipa and Katy Perry further emphasizes the consistent active pop vibe, ensuring the playlist maintains a steady energetic atmosphere.</t>
+          <t>모든 곡이 반복되지만 'active_pop' 태그를 가지고 있어 활기찬, 에너제틱한 분위기로, 'gym / active' 컨텍스트와 완벽하게 맞아떨어진다. 분위기의 큰 변동이 없으며, 명확한 컨셉을 유지하고 있다.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>["Dua Lipa - Don't Start Now", 'Dua Lipa - Physical', "Dua Lipa - Don't Start Now", 'Dua Lipa - Physical', 'Katy Perry - Roar', 'Katy Perry - Roar', "Dua Lipa - Don't Start Now", 'Katy Perry - Roar', 'Dua Lipa - Physical', 'Katy Perry - Roar']</t>
+          <t>['Dua Lipa - Physical', "Dua Lipa - Don't Start Now", 'Katy Perry - Roar', 'Dua Lipa - Physical', 'Katy Perry - Roar', 'Dua Lipa - Physical', 'Katy Perry - Roar', 'Dua Lipa - Physical', 'Dua Lipa - Physical', 'Dua Lipa - Physical']</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -540,12 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The playlist consists of songs that are mostly tagged with 'sleep_ambient' and 'sleep_acoustic', which suggests a calm and soothing atmosphere appropriate for sleep. The inclusion of a sleep_r-nb track ('Best Part' by Daniel Caesar) also fits well within a peaceful, laid-back context. There is no drastic genre disparity such as a shift to high-energy or jarring pieces, which ensures a consistent mood for the sleep context.</t>
+          <t>The playlist consists of songs tagged as either 'sleep_ambient' or 'sleep_acoustic,' both of which are suitable for a sleep or relaxing home environment. The repeated selection of 'Yiruma - River Flows in You,' and 'Ludovico Einaudi - Nuvole Bianche,' both tagged with 'sleep_ambient,' adds to the atmosphere. Even the songs with the 'acoustic' tag, like Ed Sheeran's entries, maintain a gentle, calming quality. Overall, the playlist is very cohesive in terms of mood, with all tracks likely to contribute to a tranquil ambiance.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Sigur Rós - Svefn-g-englar', 'Ed Sheeran - Photograph', 'Ludovico Einaudi - Nuvole Bianche', 'Daniel Caesar - Best Part', 'Lauv - Julia', 'AURORA - Exist for Love', 'Sigur Rós - Samskeyti', 'John Legend - All of Me', 'Ed Sheeran - Photograph', 'Ed Sheeran - Photograph']</t>
+          <t>['Yiruma - River Flows in You', 'Ed Sheeran - Photograph', 'Jóhann Jóhannsson - Flight From The City', 'Sam Smith - Lay Me Down', 'Ludovico Einaudi - Nuvole Bianche', 'Sam Smith - Not In That Way', 'Yiruma - River Flows in You', 'Ludovico Einaudi - Nuvole Bianche', 'Ed Sheeran - Perfect', 'AURORA - Into the Unknown']</t>
         </is>
       </c>
     </row>
